--- a/_6_Queries_&_Results/Exp2/CozoPG_vs_CozoRPG_R1.xlsx
+++ b/_6_Queries_&_Results/Exp2/CozoPG_vs_CozoRPG_R1.xlsx
@@ -5,22 +5,27 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selsebil\Downloads\EXP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selsebil\Desktop\Thèse\EXPERIENCES\EXP2 - UPDATED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB37ACC6-CD24-4C8A-925F-0081CC59D223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF64827C-C088-4289-B06E-60C9D94428CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="366" windowWidth="23028" windowHeight="13668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>DS_size</t>
   </si>
@@ -29,15 +34,6 @@
   </si>
   <si>
     <t>CozoRPG</t>
-  </si>
-  <si>
-    <t>100K_500K</t>
-  </si>
-  <si>
-    <t>200K_1M</t>
-  </si>
-  <si>
-    <t>300K_1M500K</t>
   </si>
   <si>
     <t>400K_2M</t>
@@ -520,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -547,10 +543,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>819</v>
+        <v>2667</v>
       </c>
       <c r="C2">
-        <v>850</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -558,10 +554,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1782</v>
+        <v>3379</v>
       </c>
       <c r="C3">
-        <v>1986</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -569,10 +565,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2574</v>
+        <v>4365</v>
       </c>
       <c r="C4">
-        <v>2930</v>
+        <v>4865</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -580,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2667</v>
+        <v>5365</v>
       </c>
       <c r="C5">
-        <v>2834</v>
+        <v>5865</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -591,10 +587,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>3379</v>
+        <v>6113</v>
       </c>
       <c r="C6">
-        <v>3532</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -602,10 +598,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>4365</v>
+        <v>7020</v>
       </c>
       <c r="C7">
-        <v>4742</v>
+        <v>7520</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -613,10 +609,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>5365</v>
+        <v>7980</v>
       </c>
       <c r="C8">
-        <v>5447</v>
+        <v>8480</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -624,10 +620,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>6113</v>
+        <v>8885</v>
       </c>
       <c r="C9">
-        <v>6315</v>
+        <v>9385</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -635,10 +631,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>7020</v>
+        <v>9650</v>
       </c>
       <c r="C10">
-        <v>7321</v>
+        <v>10150</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -646,10 +642,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>7980</v>
+        <v>10520</v>
       </c>
       <c r="C11">
-        <v>8143</v>
+        <v>11020</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -657,10 +653,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>8885</v>
+        <v>11390</v>
       </c>
       <c r="C12">
-        <v>8996</v>
+        <v>11890</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -668,10 +664,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>9650</v>
+        <v>12350</v>
       </c>
       <c r="C13">
-        <v>9788</v>
+        <v>12850</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -679,10 +675,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>10520</v>
+        <v>12899</v>
       </c>
       <c r="C14">
-        <v>10856</v>
+        <v>13399</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -690,10 +686,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>11390</v>
+        <v>13940</v>
       </c>
       <c r="C15">
-        <v>11764</v>
+        <v>14440</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -701,10 +697,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>12350</v>
+        <v>14950</v>
       </c>
       <c r="C16">
-        <v>12572</v>
+        <v>15450</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -712,10 +708,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>12899</v>
+        <v>15890</v>
       </c>
       <c r="C17">
-        <v>13214</v>
+        <v>16390</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -723,10 +719,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>13940</v>
+        <v>16580</v>
       </c>
       <c r="C18">
-        <v>14306</v>
+        <v>17080</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -734,10 +730,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>14950</v>
+        <v>17650</v>
       </c>
       <c r="C19">
-        <v>15203</v>
+        <v>18150</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -745,10 +741,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>15890</v>
+        <v>18802</v>
       </c>
       <c r="C20">
-        <v>16180</v>
+        <v>19302</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -756,10 +752,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>16580</v>
+        <v>19330</v>
       </c>
       <c r="C21">
-        <v>17005</v>
+        <v>19830</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -767,10 +763,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>17650</v>
+        <v>20270</v>
       </c>
       <c r="C22">
-        <v>17903</v>
+        <v>20770</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -778,10 +774,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>18802</v>
+        <v>21190</v>
       </c>
       <c r="C23">
-        <v>19011</v>
+        <v>21690</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -789,10 +785,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>19330</v>
+        <v>21850</v>
       </c>
       <c r="C24">
-        <v>19553</v>
+        <v>22350</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -800,10 +796,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>20270</v>
+        <v>22860</v>
       </c>
       <c r="C25">
-        <v>20395</v>
+        <v>23360</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -811,10 +807,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>21190</v>
+        <v>23910</v>
       </c>
       <c r="C26">
-        <v>21415</v>
+        <v>24410</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -822,10 +818,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>21850</v>
+        <v>24870</v>
       </c>
       <c r="C27">
-        <v>22129</v>
+        <v>25370</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -833,43 +829,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>22860</v>
+        <v>27350</v>
       </c>
       <c r="C28">
-        <v>23010</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>23910</v>
-      </c>
-      <c r="C29">
-        <v>24286</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>24870</v>
-      </c>
-      <c r="C30">
-        <v>25052</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>27350</v>
-      </c>
-      <c r="C31">
-        <v>27620</v>
+        <v>27850</v>
       </c>
     </row>
   </sheetData>
